--- a/nr-add-resource-schema/ig/all-profiles.xlsx
+++ b/nr-add-resource-schema/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:45:47+00:00</t>
+    <t>2024-05-03T11:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/all-profiles.xlsx
+++ b/nr-add-resource-schema/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:27:24+00:00</t>
+    <t>2024-05-03T11:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/all-profiles.xlsx
+++ b/nr-add-resource-schema/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:29:30+00:00</t>
+    <t>2024-05-03T11:45:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/all-profiles.xlsx
+++ b/nr-add-resource-schema/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:45:56+00:00</t>
+    <t>2024-05-03T11:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3206,7 +3206,7 @@
     <t>PDSm Find DocumentReferences Comprehensive Response</t>
   </si>
   <si>
-    <t>Réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
+    <t>Profil de réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage</t>
@@ -3327,7 +3327,7 @@
     <t>PDSm Find Lists Response</t>
   </si>
   <si>
-    <t>Réponse de la transaction IHE "Find Document Lists [ITI-66]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage et profilé pour le volet PDSm</t>
+    <t>Profil de réponse de la transaction IHE "Find Document Lists [ITI-66]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage</t>
@@ -3856,7 +3856,7 @@
     <t>PDSm Simplified Publish Document Reference</t>
   </si>
   <si>
-    <t>Ce profil est utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
+    <t>Profil utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
 Contrairement au profil PDSm_ComprehensiveDocumentReference, le document est directement inclus dans DocumentReference.attachment.data et non dans une ressource « Binary » externe.
 La publication simplifiée est une simple requête HTTP POST d'une ressource DocumentReference conforme à ce profil.</t>
   </si>

--- a/nr-add-resource-schema/ig/all-profiles.xlsx
+++ b/nr-add-resource-schema/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:56:06+00:00</t>
+    <t>2024-05-03T11:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/all-profiles.xlsx
+++ b/nr-add-resource-schema/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:59:52+00:00</t>
+    <t>2024-05-03T12:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/all-profiles.xlsx
+++ b/nr-add-resource-schema/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T12:59:12+00:00</t>
+    <t>2024-05-28T07:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3206,7 +3206,7 @@
     <t>PDSm Find DocumentReferences Comprehensive Response</t>
   </si>
   <si>
-    <t>Profil de réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
+    <t>Profil de réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage</t>
@@ -3327,7 +3327,7 @@
     <t>PDSm Find Lists Response</t>
   </si>
   <si>
-    <t>Profil de réponse de la transaction IHE "Find Document Lists [ITI-66]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage et profilé pour le volet PDSm</t>
+    <t>Profil de réponse de la transaction IHE "Find Document Lists [ITI-66]" basée sur le bundle MHD FindDocumentListsResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage</t>
